--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1006.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1006.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172154126997419</v>
+        <v>1.331414580345154</v>
       </c>
       <c r="B1">
-        <v>2.507328343010916</v>
+        <v>1.532049417495728</v>
       </c>
       <c r="C1">
-        <v>4.469478603833502</v>
+        <v>1.940873265266418</v>
       </c>
       <c r="D1">
-        <v>2.479833404253958</v>
+        <v>2.714714050292969</v>
       </c>
       <c r="E1">
-        <v>1.044932056083836</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
